--- a/xlsx/a69_f35_cUPPachuca.xlsx
+++ b/xlsx/a69_f35_cUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -354,13 +354,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -370,6 +367,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,6 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,7 +690,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,34 +923,34 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>2020</v>
       </c>
-      <c r="B8" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
+      <c r="B8" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="O8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="P8" s="2" t="s">
+      <c r="N8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="O8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -964,7 +965,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H71">
       <formula1>Hidden_17</formula1>
     </dataValidation>
   </dataValidations>
@@ -977,192 +978,197 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="11" t="s">
         <v>83</v>
       </c>
     </row>

--- a/xlsx/a69_f35_cUPPachuca.xlsx
+++ b/xlsx/a69_f35_cUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Solicitud de Fracciones SIPOT 2021\Maydeli\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -363,14 +363,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,7 +380,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,7 +690,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,14 +923,14 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44196</v>
+      <c r="A8" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44286</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -945,12 +945,12 @@
         <v>84</v>
       </c>
       <c r="N8" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="O8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="P8" s="5" t="s">
+        <v>44298</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -988,187 +988,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="5" t="s">
         <v>83</v>
       </c>
     </row>

--- a/xlsx/a69_f35_cUPPachuca.xlsx
+++ b/xlsx/a69_f35_cUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Solicitud de Fracciones SIPOT 2021\Maydeli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -369,6 +369,9 @@
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,9 +382,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,7 +690,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,38 +719,38 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -853,24 +853,24 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -923,14 +923,14 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="6">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -945,10 +945,10 @@
         <v>84</v>
       </c>
       <c r="N8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>85</v>

--- a/xlsx/a69_f35_cUPPachuca.xlsx
+++ b/xlsx/a69_f35_cUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,10 +927,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -945,10 +945,10 @@
         <v>84</v>
       </c>
       <c r="N8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="O8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>85</v>

--- a/xlsx/a69_f35_cUPPachuca.xlsx
+++ b/xlsx/a69_f35_cUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,10 +927,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -945,10 +945,10 @@
         <v>84</v>
       </c>
       <c r="N8" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="O8" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>85</v>

--- a/xlsx/a69_f35_cUPPachuca.xlsx
+++ b/xlsx/a69_f35_cUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -443,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,7 +473,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -689,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,13 +919,13 @@
     </row>
     <row r="8" spans="1:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -945,10 +940,10 @@
         <v>84</v>
       </c>
       <c r="N8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="O8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>85</v>

--- a/xlsx/a69_f35_cUPPachuca.xlsx
+++ b/xlsx/a69_f35_cUPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -275,7 +280,7 @@
     <t>Abogado General (UPP)</t>
   </si>
   <si>
-    <t>La Universidad Politécnica de Pachuca, no cuenta con recomendaciones del organismo público garante de los Derechos Humanos, conforme lo disponen los Artículos 115 y 120 de la Ley de Derechos Humanos del Estado de Hidalgo.</t>
+    <t>La Universidad Politécnica de Pachuca, no cuenta con las recomendaciones de organismos internacionales de derechos humanos.</t>
   </si>
 </sst>
 </file>
@@ -438,7 +443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,7 +478,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -684,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +735,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -917,15 +922,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -940,10 +945,10 @@
         <v>84</v>
       </c>
       <c r="N8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="O8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>85</v>

--- a/xlsx/a69_f35_cUPPachuca.xlsx
+++ b/xlsx/a69_f35_cUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="750" yWindow="555" windowWidth="13815" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -287,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -308,6 +303,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -327,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -350,6 +352,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -360,28 +380,28 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,9 +412,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -443,7 +460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,7 +495,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -689,28 +706,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" customWidth="1"/>
-    <col min="3" max="3" width="61.140625" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.28515625" customWidth="1"/>
+    <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="56.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46" customWidth="1"/>
+    <col min="16" max="16" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -719,38 +736,38 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -853,24 +870,24 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -922,15 +939,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:16" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -945,12 +962,12 @@
         <v>84</v>
       </c>
       <c r="N8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="O8" s="3">
-        <v>44753</v>
-      </c>
-      <c r="P8" s="4" t="s">
+        <v>44844</v>
+      </c>
+      <c r="P8" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -965,7 +982,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H71">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H60">
       <formula1>Hidden_17</formula1>
     </dataValidation>
   </dataValidations>
@@ -978,197 +995,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="51.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" t="s">
         <v>83</v>
       </c>
     </row>

--- a/xlsx/a69_f35_cUPPachuca.xlsx
+++ b/xlsx/a69_f35_cUPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="555" windowWidth="13815" windowHeight="9405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
     <t>Abogado General (UPP)</t>
   </si>
   <si>
-    <t>La Universidad Politécnica de Pachuca, no cuenta con las recomendaciones de organismos internacionales de derechos humanos.</t>
+    <t>La Universidad Politécnica de Pachuca, no ha recibido las recomendaciones de organismos garantes de derechos humanos de organismos internacionales.</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -385,7 +385,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,6 +411,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -706,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,38 +738,38 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -870,24 +872,24 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -939,15 +941,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -962,12 +964,12 @@
         <v>84</v>
       </c>
       <c r="N8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="O8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="P8" s="11" t="s">
+        <v>44936</v>
+      </c>
+      <c r="P8" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -982,12 +984,11 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H60">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H201">
       <formula1>Hidden_17</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f35_cUPPachuca.xlsx
+++ b/xlsx/a69_f35_cUPPachuca.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -352,56 +352,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,39 +404,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,7 +471,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,166 +515,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -708,15 +658,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
@@ -729,7 +679,7 @@
     <col min="13" max="13" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.140625" customWidth="1"/>
+    <col min="16" max="16" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -738,38 +688,38 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -872,24 +822,24 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -941,15 +891,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44926</v>
+    <row r="8" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45016</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -960,16 +910,16 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="P8" s="10" t="s">
+      <c r="N8" s="4">
+        <v>45026</v>
+      </c>
+      <c r="O8" s="4">
+        <v>45026</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>85</v>
       </c>
     </row>

--- a/xlsx/a69_f35_cUPPachuca.xlsx
+++ b/xlsx/a69_f35_cUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Pagina Oficial 2do Trimestre 2023\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77485FA7-9E9D-430E-B9E6-686600D88796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -281,7 +287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,7 +314,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -329,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -352,29 +357,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -404,39 +426,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,6 +491,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -504,6 +543,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,151 +571,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +759,7 @@
     <col min="13" max="13" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.7109375" customWidth="1"/>
+    <col min="16" max="16" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -704,18 +784,18 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="7"/>
@@ -891,33 +971,33 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2023</v>
       </c>
-      <c r="B8" s="4">
-        <v>44927</v>
-      </c>
-      <c r="C8" s="4">
-        <v>45016</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>45017</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45107</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N8" s="4">
-        <v>45026</v>
-      </c>
-      <c r="O8" s="4">
-        <v>45026</v>
+      <c r="N8" s="3">
+        <v>45117</v>
+      </c>
+      <c r="O8" s="3">
+        <v>45117</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>85</v>
@@ -934,7 +1014,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_17</formula1>
     </dataValidation>
   </dataValidations>
@@ -943,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
